--- a/biology/Zoologie/Hydropotes_inermis/Hydropotes_inermis.xlsx
+++ b/biology/Zoologie/Hydropotes_inermis/Hydropotes_inermis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hydropote (Hydropotes inermis), cerf d'eau, chevreuil des marais ou cerf vampire est un petit cervidé d'Asie de l'Est. Il n'est pas classé parmi les chevrotains porte-musc, malgré plusieurs de ses caractéristiques apparentes. 
 </t>
@@ -511,12 +523,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce petit cervidé est très craintif. Le mâle, un peu plus grand que la femelle, possède de grandes canines apparentes, utilisées pendant les combats entre mâles.
 Les petits peuvent posséder un pelage légèrement tacheté, alors que les parents ont un pelage uni. 
 Une de ses caractéristiques notables est qu'il est le seul membre de la famille des cervidés à ne pas posséder de bois, par contre ses canines descendantes forment des défenses (qu'on retrouve aussi dans la famille des Moschidae).
-Ces canines sont tenues librement dans leur cavité, leurs mouvements étant contrôlés par les muscles faciaux. Le mâle peut les tirer vers l'arrière lorsqu'il mange. En cas de danger, il fait sortir ses canines et rentre sa lèvre inférieure pour rapprocher ses dents. Il présente alors une impressionnante arme à deux dents mesurant jusqu'à 8 cm[1] à ses rivaux mâles. C'est à cause de ces dents développées en crocs que cet animal est souvent appelé « cerf vampire »[2].
+Ces canines sont tenues librement dans leur cavité, leurs mouvements étant contrôlés par les muscles faciaux. Le mâle peut les tirer vers l'arrière lorsqu'il mange. En cas de danger, il fait sortir ses canines et rentre sa lèvre inférieure pour rapprocher ses dents. Il présente alors une impressionnante arme à deux dents mesurant jusqu'à 8 cm à ses rivaux mâles. C'est à cause de ces dents développées en crocs que cet animal est souvent appelé « cerf vampire ».
 Selon MSW :
 sous-famille Hydropotinae
 genre Hydropotes
@@ -550,9 +564,11 @@
           <t>En Russie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce avait été observée plusieurs fois depuis 2015 au sud du raïon de Khassan, dans le kraï du Primorié par des gardes de réserve naturelle. En 2019, un piège photographique a permis de prouver sa présence dans le parc national de la Terre du Léopard, alors qu'il n'était pas considéré comme présent dans le pays. Il devient ainsi la 327e espèce de mammifères de Russie, et la huitième espèce de la famille des cervidés[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce avait été observée plusieurs fois depuis 2015 au sud du raïon de Khassan, dans le kraï du Primorié par des gardes de réserve naturelle. En 2019, un piège photographique a permis de prouver sa présence dans le parc national de la Terre du Léopard, alors qu'il n'était pas considéré comme présent dans le pays. Il devient ainsi la 327e espèce de mammifères de Russie, et la huitième espèce de la famille des cervidés.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, une petite population férale serait présente au sud de Limoges par suite de l'abandon d'un parc privé[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, une petite population férale serait présente au sud de Limoges par suite de l'abandon d'un parc privé,.
 </t>
         </is>
       </c>
